--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,167 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
-  <si>
-    <t xml:space="preserve">Tarih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anket Şirketi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Örneklem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdoğan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kılıçdaroğlu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İnce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oğan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarih1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-7 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetroPOLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Mart-2 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-29 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yöneylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-21 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artıbir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-18 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-17 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avrasya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-15 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Themis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.750</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">NA</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,18 +371,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>45.9</v>
@@ -560,21 +400,21 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>45.2</v>
@@ -592,21 +432,21 @@
         <v>1.7</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>46.8</v>
@@ -624,21 +464,21 @@
         <v>4.6</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>46.8</v>
@@ -656,21 +496,21 @@
         <v>1.1</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>41.6</v>
@@ -688,21 +528,21 @@
         <v>4.8</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>44</v>
@@ -720,21 +560,21 @@
         <v>7.3</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>47.4</v>
@@ -752,21 +592,21 @@
         <v>2.1</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
       <c r="D9" t="n">
         <v>39.7</v>
@@ -784,21 +624,21 @@
         <v>13.8</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
         <v>44.3</v>
@@ -814,21 +654,21 @@
         <v>1.2</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
       </c>
       <c r="D11" t="n">
         <v>42.3</v>
@@ -846,21 +686,21 @@
         <v>10.8</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
       <c r="D12" t="n">
         <v>32.1</v>
@@ -878,21 +718,21 @@
         <v>4.7</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
       <c r="D13" t="n">
         <v>45.7</v>
@@ -906,10 +746,10 @@
         <v>5.4</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -26,15 +26,15 @@
     <t xml:space="preserve">Erdoğan</t>
   </si>
   <si>
+    <t xml:space="preserve">Kılıçdaroğlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oğan</t>
+  </si>
+  <si>
     <t xml:space="preserve">İnce</t>
   </si>
   <si>
-    <t xml:space="preserve">Kılıçdaroğlu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oğan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fark</t>
   </si>
   <si>
@@ -44,6 +44,69 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">10-16 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-14 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areda Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-12 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-11 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avrasya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-7 Nisan</t>
   </si>
   <si>
@@ -56,9 +119,6 @@
     <t xml:space="preserve">2023-04-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-3 Nisan</t>
   </si>
   <si>
@@ -71,6 +131,18 @@
     <t xml:space="preserve">2023-04-03</t>
   </si>
   <si>
+    <t xml:space="preserve">1-2 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gezici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-02</t>
+  </si>
+  <si>
     <t xml:space="preserve">25 Mart-2 Nisan</t>
   </si>
   <si>
@@ -80,7 +152,25 @@
     <t xml:space="preserve">2.147</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-02</t>
+    <t xml:space="preserve">28 Mart-1 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.000</t>
   </si>
   <si>
     <t xml:space="preserve">SAROS</t>
@@ -89,9 +179,6 @@
     <t xml:space="preserve">10.729</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">27-29 Mart</t>
   </si>
   <si>
@@ -131,9 +218,6 @@
     <t xml:space="preserve">12-17 Mart</t>
   </si>
   <si>
-    <t xml:space="preserve">Avrasya</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.560</t>
   </si>
   <si>
@@ -143,15 +227,12 @@
     <t xml:space="preserve">10.826</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-16</t>
+    <t xml:space="preserve">2023-03-01</t>
   </si>
   <si>
     <t xml:space="preserve">11-15 Mart</t>
   </si>
   <si>
-    <t xml:space="preserve">ORC</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.540</t>
   </si>
   <si>
@@ -162,15 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.750</t>
   </si>
 </sst>
 </file>
@@ -545,19 +617,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>45.9</v>
+        <v>45.5</v>
       </c>
       <c r="E2" t="n">
-        <v>8.3</v>
+        <v>49.8</v>
       </c>
       <c r="F2" t="n">
-        <v>43.9</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -577,19 +649,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>45.2</v>
+        <v>50.8</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
+        <v>43.1</v>
       </c>
       <c r="F3" t="n">
-        <v>46.9</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -609,19 +681,19 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>46.8</v>
+        <v>43.9</v>
       </c>
       <c r="E4" t="n">
-        <v>8.4</v>
+        <v>47.4</v>
       </c>
       <c r="F4" t="n">
-        <v>42.2</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -632,31 +704,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>46.8</v>
+        <v>41.5</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>48.9</v>
       </c>
       <c r="F5" t="n">
-        <v>45.7</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -664,34 +736,34 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>41.6</v>
+        <v>42.3</v>
       </c>
       <c r="E6" t="n">
-        <v>9.1</v>
+        <v>50.9</v>
       </c>
       <c r="F6" t="n">
-        <v>46.4</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -705,25 +777,25 @@
         <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>45.9</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>43.9</v>
       </c>
       <c r="F7" t="n">
-        <v>51.3</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>8.3</v>
       </c>
       <c r="H7" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -731,162 +803,164 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5</v>
+        <v>46.9</v>
       </c>
       <c r="F8" t="n">
-        <v>45.3</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7</v>
+        <v>43.2</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9</v>
+        <v>53.4</v>
       </c>
       <c r="F9" t="n">
-        <v>53.5</v>
+        <v>1.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>13.8</v>
+        <v>10.2</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
-        <v>42.3</v>
+        <v>50.6</v>
       </c>
       <c r="E11" t="n">
-        <v>3.1</v>
+        <v>41.8</v>
       </c>
       <c r="F11" t="n">
-        <v>53.1</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>10.8</v>
+        <v>8.8</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -895,21 +969,307 @@
         <v>52</v>
       </c>
       <c r="D13" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E14" t="n">
         <v>45.7</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44</v>
+      </c>
+      <c r="E16" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E22" t="n">
         <v>51.1</v>
       </c>
-      <c r="G13"/>
-      <c r="H13" t="n">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="n">
         <v>5.4</v>
       </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -26,15 +26,15 @@
     <t xml:space="preserve">Erdoğan</t>
   </si>
   <si>
+    <t xml:space="preserve">İnce</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kılıçdaroğlu</t>
   </si>
   <si>
     <t xml:space="preserve">Oğan</t>
   </si>
   <si>
-    <t xml:space="preserve">İnce</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fark</t>
   </si>
   <si>
@@ -44,33 +44,36 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">14-16 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yöneylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
     <t xml:space="preserve">10-16 Nisan</t>
   </si>
   <si>
+    <t xml:space="preserve">SONAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.541</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAK</t>
   </si>
   <si>
     <t xml:space="preserve">5.750</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-14 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Areda Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">8-12 Nisan</t>
   </si>
   <si>
@@ -152,21 +155,15 @@
     <t xml:space="preserve">2.147</t>
   </si>
   <si>
-    <t xml:space="preserve">28 Mart-1 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.478</t>
+    <t xml:space="preserve">Aksoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.067</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Aksoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.067</t>
-  </si>
-  <si>
     <t xml:space="preserve">İEA</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">27-29 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yöneylem</t>
   </si>
   <si>
     <t xml:space="preserve">2.655</t>
@@ -617,19 +611,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>49.8</v>
+        <v>5.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>48.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -649,22 +643,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>50.8</v>
+        <v>46.1</v>
       </c>
       <c r="E3" t="n">
-        <v>43.1</v>
+        <v>7.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>44.1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -672,31 +666,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="n">
-        <v>43.9</v>
+        <v>45.5</v>
       </c>
       <c r="E4" t="n">
-        <v>47.4</v>
+        <v>3.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>49.8</v>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -704,31 +698,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -736,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -768,31 +762,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -800,31 +794,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>46.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -832,31 +826,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I9" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -864,31 +858,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -896,31 +890,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
       <c r="D11" t="n">
-        <v>50.6</v>
+        <v>46.8</v>
       </c>
       <c r="E11" t="n">
-        <v>41.8</v>
+        <v>8.4</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>42.2</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>8.8</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -931,28 +925,28 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="n">
         <v>38.4</v>
       </c>
       <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
         <v>47.9</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
       </c>
       <c r="H12" t="n">
         <v>9.5</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -963,28 +957,28 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
       </c>
       <c r="D13" t="n">
         <v>41.8</v>
       </c>
       <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
         <v>44.3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.9</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11</v>
       </c>
       <c r="H13" t="n">
         <v>2.5</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -995,28 +989,28 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>46.8</v>
       </c>
       <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
         <v>45.7</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>1.1</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1024,252 +1018,244 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
       </c>
       <c r="D15" t="n">
         <v>41.6</v>
       </c>
       <c r="E15" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F15" t="n">
         <v>46.4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>2.9</v>
       </c>
-      <c r="G15" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="H15"/>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
       </c>
       <c r="D16" t="n">
         <v>44</v>
       </c>
       <c r="E16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="n">
         <v>51.3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.2</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.3</v>
-      </c>
+      <c r="H16"/>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
         <v>47.4</v>
       </c>
       <c r="E17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F17" t="n">
         <v>45.3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.7</v>
       </c>
-      <c r="G17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="H17"/>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" t="n">
         <v>39.7</v>
       </c>
       <c r="E18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F18" t="n">
         <v>53.5</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.4</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.9</v>
       </c>
-      <c r="H18" t="n">
-        <v>13.8</v>
-      </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="n">
         <v>44.3</v>
       </c>
       <c r="E19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F19" t="n">
         <v>45.5</v>
       </c>
-      <c r="F19"/>
-      <c r="G19" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="G19"/>
       <c r="H19" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="n">
         <v>42.3</v>
       </c>
       <c r="E20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F20" t="n">
         <v>53.1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.5</v>
       </c>
-      <c r="G20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10.8</v>
-      </c>
+      <c r="H20"/>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="n">
         <v>32.1</v>
       </c>
       <c r="E21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F21" t="n">
         <v>36.8</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>12.2</v>
       </c>
-      <c r="G21" t="n">
-        <v>7.9</v>
-      </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>11.1</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>45.7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22"/>
+      <c r="F22" t="n">
         <v>51.1</v>
       </c>
-      <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -44,6 +44,66 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">17-25 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÜSİAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-24 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artıbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-22 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-20 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-20 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areda Survey[a 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.400</t>
+  </si>
+  <si>
     <t xml:space="preserve">14-16 Nisan</t>
   </si>
   <si>
@@ -56,9 +116,6 @@
     <t xml:space="preserve">2023-04-16</t>
   </si>
   <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
     <t xml:space="preserve">10-16 Nisan</t>
   </si>
   <si>
@@ -74,6 +131,15 @@
     <t xml:space="preserve">5.750</t>
   </si>
   <si>
+    <t xml:space="preserve">12-14 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">8-12 Nisan</t>
   </si>
   <si>
@@ -89,9 +155,6 @@
     <t xml:space="preserve">7-11 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">ORC</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.400</t>
   </si>
   <si>
@@ -101,7 +164,7 @@
     <t xml:space="preserve">6-10 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Avrasya</t>
+    <t xml:space="preserve">Avrasya[a 2]</t>
   </si>
   <si>
     <t xml:space="preserve">2.410</t>
@@ -113,7 +176,7 @@
     <t xml:space="preserve">1-7 Nisan</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimar</t>
+    <t xml:space="preserve">Optimar[a 3]</t>
   </si>
   <si>
     <t xml:space="preserve">4.745</t>
@@ -155,15 +218,21 @@
     <t xml:space="preserve">2.147</t>
   </si>
   <si>
-    <t xml:space="preserve">Aksoy</t>
+    <t xml:space="preserve">28 Mart-1 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy[a 4]</t>
   </si>
   <si>
     <t xml:space="preserve">1.067</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">İEA</t>
   </si>
   <si>
@@ -176,6 +245,18 @@
     <t xml:space="preserve">10.729</t>
   </si>
   <si>
+    <t xml:space="preserve">27-30 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mart</t>
+  </si>
+  <si>
     <t xml:space="preserve">27-29 Mart</t>
   </si>
   <si>
@@ -185,16 +266,7 @@
     <t xml:space="preserve">2023-03-29</t>
   </si>
   <si>
-    <t xml:space="preserve">Mart</t>
-  </si>
-  <si>
     <t xml:space="preserve">13-21 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artıbir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.500</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-21</t>
@@ -611,19 +683,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>48.7</v>
       </c>
       <c r="E2" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="F2" t="n">
-        <v>48.6</v>
+        <v>46.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -643,22 +715,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>46.1</v>
+        <v>43.7</v>
       </c>
       <c r="E3" t="n">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="n">
-        <v>44.1</v>
+        <v>49.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -666,31 +738,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>45.5</v>
+        <v>42.4</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="F4" t="n">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="G4" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -698,31 +770,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9</v>
+        <v>46.7</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="n">
-        <v>47.4</v>
+        <v>46.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -730,31 +802,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -762,31 +834,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>42.3</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="F7" t="n">
-        <v>50.9</v>
+        <v>48.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -794,31 +866,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="E8" t="n">
-        <v>8.3</v>
+        <v>7.7</v>
       </c>
       <c r="F8" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -826,7 +898,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -835,22 +907,22 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2</v>
+        <v>45.5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" t="n">
-        <v>46.9</v>
+        <v>49.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -858,31 +930,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -890,31 +962,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -922,31 +994,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -954,7 +1026,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -963,22 +1035,22 @@
         <v>51</v>
       </c>
       <c r="D13" t="n">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="F13" t="n">
-        <v>44.3</v>
+        <v>50.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -986,31 +1058,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="n">
-        <v>46.8</v>
+        <v>45.9</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>8.3</v>
       </c>
       <c r="F14" t="n">
-        <v>45.7</v>
+        <v>43.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1018,244 +1090,498 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>41.6</v>
+        <v>45.2</v>
       </c>
       <c r="E15" t="n">
-        <v>9.1</v>
+        <v>5.5</v>
       </c>
       <c r="F15" t="n">
-        <v>46.4</v>
+        <v>46.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H15"/>
+        <v>2.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.7</v>
+      </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="E16" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="F16" t="n">
-        <v>51.3</v>
+        <v>53.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16"/>
+        <v>1.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.2</v>
+      </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4</v>
+        <v>46.8</v>
       </c>
       <c r="E17" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="F17" t="n">
-        <v>45.3</v>
+        <v>42.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H17"/>
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.6</v>
+      </c>
       <c r="I17" t="s">
         <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>39.7</v>
+        <v>50.6</v>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>53.5</v>
+        <v>41.8</v>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>8.8</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>44.3</v>
+        <v>38.4</v>
       </c>
       <c r="E19" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G19"/>
+        <v>47.9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="H19" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20" t="s">
-        <v>72</v>
-      </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
-        <v>32.1</v>
+        <v>46.8</v>
       </c>
       <c r="E21" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>36.8</v>
+        <v>45.7</v>
       </c>
       <c r="G21" t="n">
-        <v>12.2</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>11.1</v>
+        <v>1.1</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D22" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>44</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="n">
         <v>45.7</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="n">
+      <c r="E30"/>
+      <c r="F30" t="n">
         <v>51.1</v>
       </c>
-      <c r="G22"/>
-      <c r="H22" t="n">
+      <c r="G30"/>
+      <c r="H30" t="n">
         <v>3.3</v>
       </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>57</v>
+      <c r="I30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,305 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
-  <si>
-    <t xml:space="preserve">Tarih</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anket Şirketi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Örneklem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdoğan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İnce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kılıçdaroğlu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oğan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarih1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-25 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÜSİAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-24 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artıbir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-22 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-20 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-20 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Areda Survey[a 1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-16 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yöneylem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-16 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-14 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-12 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-11 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-10 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avrasya[a 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-7 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimar[a 3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetroPOLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gezici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Mart-2 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 Mart-1 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aksoy[a 4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-30 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-29 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-21 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-18 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-17 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-15 Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Themis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.458</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">NA</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,19 +385,19 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>48.7</v>
+        <v>43.6</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="n">
-        <v>46.6</v>
+        <v>50.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -715,19 +417,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>43.7</v>
+        <v>45.4</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="F3" t="n">
-        <v>49.4</v>
+        <v>50.9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -747,19 +449,19 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>42.4</v>
+        <v>50.8</v>
       </c>
       <c r="E4" t="n">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="F4" t="n">
-        <v>49.3</v>
+        <v>41.9</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -779,22 +481,22 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7</v>
+        <v>49.2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="F5" t="n">
-        <v>46.8</v>
+        <v>43.3</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -802,31 +504,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -843,22 +545,22 @@
         <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>47.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="n">
-        <v>48.6</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -866,31 +568,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="n">
-        <v>46.1</v>
+        <v>48.8</v>
       </c>
       <c r="E8" t="n">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="F8" t="n">
         <v>44.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -898,31 +600,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" t="n">
-        <v>45.5</v>
+        <v>49.1</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
-        <v>49.8</v>
+        <v>46.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -930,28 +632,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>50.8</v>
+        <v>44.6</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F10" t="n">
-        <v>43.1</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
@@ -971,121 +673,121 @@
         <v>44</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9</v>
+        <v>42.5</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="F11" t="n">
-        <v>47.4</v>
+        <v>48.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
-        <v>41.5</v>
+        <v>47.2</v>
       </c>
       <c r="E12" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="F12" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>42.3</v>
+        <v>48.8</v>
       </c>
       <c r="E13" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="F13" t="n">
-        <v>50.9</v>
+        <v>45.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1099,25 +801,25 @@
         <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2</v>
+        <v>41.9</v>
       </c>
       <c r="E15" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="F15" t="n">
-        <v>46.9</v>
+        <v>47.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1131,457 +833,1219 @@
         <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>43.2</v>
+        <v>44.1</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>53.4</v>
+        <v>51.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
-        <v>10.2</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
-      </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>69</v>
       </c>
       <c r="D18" t="n">
-        <v>50.6</v>
+        <v>44.6</v>
       </c>
       <c r="E18" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>41.8</v>
+        <v>48.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>8.8</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="s">
         <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="n">
-        <v>38.4</v>
+        <v>44.4</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="F19" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
         <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>41.8</v>
+        <v>48.7</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="F20" t="n">
-        <v>44.3</v>
+        <v>46.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>46.8</v>
+        <v>43.7</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F21" t="n">
-        <v>45.7</v>
+        <v>49.4</v>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9</v>
+        <v>41.5</v>
       </c>
       <c r="E22" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="F22" t="n">
-        <v>41.5</v>
+        <v>49.5</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H22"/>
+        <v>2.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D23" t="n">
-        <v>41.6</v>
+        <v>42.4</v>
       </c>
       <c r="E23" t="n">
-        <v>9.1</v>
+        <v>6.1</v>
       </c>
       <c r="F23" t="n">
-        <v>46.4</v>
+        <v>49.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H23"/>
+        <v>2.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.9</v>
+      </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>46.7</v>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F24" t="n">
-        <v>51.3</v>
+        <v>46.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H24"/>
+        <v>2.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D25" t="n">
-        <v>47.4</v>
+        <v>51.4</v>
       </c>
       <c r="E25" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="F25" t="n">
-        <v>45.3</v>
+        <v>41.8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H25"/>
+        <v>2.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.6</v>
+      </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D26" t="n">
-        <v>39.7</v>
+        <v>47.1</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
-        <v>53.5</v>
+        <v>49.4</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>44.3</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="F27" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G27"/>
+        <v>48.6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.8</v>
+      </c>
       <c r="H27" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D28" t="n">
-        <v>42.3</v>
+        <v>46.1</v>
       </c>
       <c r="E28" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="F28" t="n">
-        <v>53.1</v>
+        <v>44.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H28"/>
+        <v>2.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
       <c r="I28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>32.1</v>
+        <v>45.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="F29" t="n">
-        <v>36.8</v>
+        <v>49.8</v>
       </c>
       <c r="G29" t="n">
-        <v>12.2</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
-        <v>11.1</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
         <v>80</v>
       </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51" t="s">
+        <v>173</v>
+      </c>
+      <c r="J51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="n">
         <v>45.7</v>
       </c>
-      <c r="E30"/>
-      <c r="F30" t="n">
+      <c r="E54"/>
+      <c r="F54" t="n">
         <v>51.1</v>
       </c>
-      <c r="G30"/>
-      <c r="H30" t="n">
+      <c r="G54"/>
+      <c r="H54" t="n">
         <v>3.3</v>
       </c>
-      <c r="I30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" t="s">
-        <v>80</v>
+      <c r="I54" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,488 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">NA</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+  <si>
+    <t xml:space="preserve">Tarih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anket Şirketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Örneklem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdoğan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İnce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kılıçdaroğlu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oğan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarih1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Nisan-5 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avrasya[a 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 Nisan-4 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areda Survey[a 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 Nisan-3 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Özdemir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Nisan-2 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İvem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nisan-2 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Nisan-2 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Nisan-1 Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-30 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yöneylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-30 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-29 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-29 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimar[a 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-28 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy[a 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-28 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sosyo Politik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-27 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-26 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gezici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-26 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-25 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÜSİAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-24 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artıbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-24 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-22 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-20 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-20 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-18 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-16 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-16 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-15 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-14 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-12 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-11 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-7 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetroPOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Mart-2 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Mart-1 Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-30 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-29 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-21 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-18 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-17 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-15 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-15 Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Themis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.458</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,10 +1532,10 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
       </c>
       <c r="D23" t="n">
         <v>42.4</v>
@@ -1072,7 +1553,7 @@
         <v>6.9</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
@@ -1080,13 +1561,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>91</v>
       </c>
       <c r="D24" t="n">
         <v>46.7</v>
@@ -1104,7 +1585,7 @@
         <v>0.1</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
@@ -1112,13 +1593,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
       </c>
       <c r="D25" t="n">
         <v>51.4</v>
@@ -1136,7 +1617,7 @@
         <v>9.6</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
@@ -1144,13 +1625,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
         <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
       </c>
       <c r="D26" t="n">
         <v>47.1</v>
@@ -1168,7 +1649,7 @@
         <v>2.3</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
@@ -1176,13 +1657,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" t="n">
         <v>43</v>
@@ -1200,7 +1681,7 @@
         <v>5.6</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
         <v>46</v>
@@ -1208,13 +1689,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" t="n">
         <v>46.1</v>
@@ -1232,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
@@ -1240,10 +1721,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1264,7 +1745,7 @@
         <v>4.3</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
         <v>46</v>
@@ -1272,10 +1753,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1296,7 +1777,7 @@
         <v>0.7</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
@@ -1304,13 +1785,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D31" t="n">
         <v>50.8</v>
@@ -1328,7 +1809,7 @@
         <v>7.7</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
@@ -1336,13 +1817,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D32" t="n">
         <v>43.9</v>
@@ -1360,7 +1841,7 @@
         <v>3.5</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J32" t="s">
         <v>46</v>
@@ -1368,13 +1849,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" t="n">
         <v>41.5</v>
@@ -1392,7 +1873,7 @@
         <v>7.4</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
@@ -1400,13 +1881,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D34" t="n">
         <v>42.3</v>
@@ -1424,7 +1905,7 @@
         <v>8.6</v>
       </c>
       <c r="I34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
@@ -1432,13 +1913,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D35" t="n">
         <v>45.9</v>
@@ -1456,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
@@ -1464,13 +1945,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D36" t="n">
         <v>45.2</v>
@@ -1488,7 +1969,7 @@
         <v>1.7</v>
       </c>
       <c r="I36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
@@ -1496,13 +1977,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D37" t="n">
         <v>43.2</v>
@@ -1520,7 +2001,7 @@
         <v>10.2</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J37" t="s">
         <v>46</v>
@@ -1528,13 +2009,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D38" t="n">
         <v>46.8</v>
@@ -1552,7 +2033,7 @@
         <v>4.6</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
@@ -1560,13 +2041,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D39" t="n">
         <v>50.6</v>
@@ -1584,7 +2065,7 @@
         <v>8.8</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
@@ -1598,7 +2079,7 @@
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D40" t="n">
         <v>43.1</v>
@@ -1616,7 +2097,7 @@
         <v>0.4</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
@@ -1627,10 +2108,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D41" t="n">
         <v>38.4</v>
@@ -1648,7 +2129,7 @@
         <v>9.5</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
@@ -1659,10 +2140,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D42" t="n">
         <v>41.8</v>
@@ -1680,7 +2161,7 @@
         <v>2.5</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
@@ -1691,10 +2172,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D43" t="n">
         <v>46.8</v>
@@ -1712,7 +2193,7 @@
         <v>1.1</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
@@ -1720,13 +2201,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D44" t="n">
         <v>49.9</v>
@@ -1742,21 +2223,21 @@
       </c>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D45" t="n">
         <v>41.6</v>
@@ -1772,18 +2253,18 @@
       </c>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
         <v>80</v>
@@ -1802,21 +2283,21 @@
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D47" t="n">
         <v>47.4</v>
@@ -1832,21 +2313,21 @@
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D48" t="n">
         <v>39.7</v>
@@ -1864,21 +2345,21 @@
         <v>2.9</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J48" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D49" t="n">
         <v>42.3</v>
@@ -1894,18 +2375,18 @@
       </c>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J49" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -1922,21 +2403,21 @@
         <v>3.7</v>
       </c>
       <c r="I50" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D51" t="n">
         <v>42.8</v>
@@ -1952,21 +2433,21 @@
       </c>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J51" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D52" t="n">
         <v>44.3</v>
@@ -1982,21 +2463,21 @@
         <v>6.9</v>
       </c>
       <c r="I52" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D53" t="n">
         <v>32.1</v>
@@ -2014,18 +2495,18 @@
         <v>11.1</v>
       </c>
       <c r="I53" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2042,10 +2523,10 @@
         <v>3.3</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J54" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -44,10 +44,214 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Nisan-5 Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avrasya[a 1]</t>
+    <t xml:space="preserve">12 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayıs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-12 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areda Survey[a 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-12 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aksoy[a 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-11 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENAR[a 3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-11 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimar[a 4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-11 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avrasya[a 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-10 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yöneylem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetroPOLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argetus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-10 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-9 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artıbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Nis-9 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-9 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-9 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-9 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-8 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İvem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-8 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-7 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gezici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KONDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Nis-5 May</t>
   </si>
   <si>
     <t xml:space="preserve">5.600</t>
@@ -56,10 +260,7 @@
     <t xml:space="preserve">2023-05-05</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 Nisan-4 Mayıs</t>
+    <t xml:space="preserve">26 Nis-4 May</t>
   </si>
   <si>
     <t xml:space="preserve">MAK</t>
@@ -71,10 +272,7 @@
     <t xml:space="preserve">2023-05-04</t>
   </si>
   <si>
-    <t xml:space="preserve">1-3 Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Areda Survey[a 2]</t>
+    <t xml:space="preserve">1-3 May</t>
   </si>
   <si>
     <t xml:space="preserve">16.740</t>
@@ -83,19 +281,7 @@
     <t xml:space="preserve">2023-05-03</t>
   </si>
   <si>
-    <t xml:space="preserve">26 Nisan-3 Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Özdemir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 Nisan-2 Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İvem</t>
+    <t xml:space="preserve">28 Nis-2 May</t>
   </si>
   <si>
     <t xml:space="preserve">4.156</t>
@@ -104,7 +290,7 @@
     <t xml:space="preserve">2023-05-02</t>
   </si>
   <si>
-    <t xml:space="preserve">25 Nisan-2 Mayıs</t>
+    <t xml:space="preserve">25 Nis-2 May</t>
   </si>
   <si>
     <t xml:space="preserve">HBS</t>
@@ -113,7 +299,7 @@
     <t xml:space="preserve">5.100</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Nisan-2 Mayıs</t>
+    <t xml:space="preserve">27 Nis-2 May</t>
   </si>
   <si>
     <t xml:space="preserve">SONAR</t>
@@ -122,16 +308,10 @@
     <t xml:space="preserve">4.197</t>
   </si>
   <si>
-    <t xml:space="preserve">ASAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.523</t>
   </si>
   <si>
-    <t xml:space="preserve">29 Nisan-1 Mayıs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORC</t>
+    <t xml:space="preserve">29 Nis-1 May</t>
   </si>
   <si>
     <t xml:space="preserve">3.950</t>
@@ -140,34 +320,28 @@
     <t xml:space="preserve">2023-05-01</t>
   </si>
   <si>
-    <t xml:space="preserve">27-30 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yöneylem</t>
+    <t xml:space="preserve">29-30 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-30 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.594</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-30 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAROS</t>
+    <t xml:space="preserve">25-30 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">7.284</t>
   </si>
   <si>
-    <t xml:space="preserve">26-29 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADA</t>
+    <t xml:space="preserve">26-29 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">3.278</t>
@@ -176,19 +350,13 @@
     <t xml:space="preserve">2023-04-29</t>
   </si>
   <si>
-    <t xml:space="preserve">25-29 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimar[a 3]</t>
+    <t xml:space="preserve">25-29 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">3.005</t>
   </si>
   <si>
-    <t xml:space="preserve">26-28 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aksoy[a 4]</t>
+    <t xml:space="preserve">26-28 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">1.537</t>
@@ -197,7 +365,7 @@
     <t xml:space="preserve">2023-04-28</t>
   </si>
   <si>
-    <t xml:space="preserve">24-28 Nisan</t>
+    <t xml:space="preserve">24-28 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">Sosyo Politik</t>
@@ -206,7 +374,7 @@
     <t xml:space="preserve">1.569</t>
   </si>
   <si>
-    <t xml:space="preserve">25-27 Nisan</t>
+    <t xml:space="preserve">25-27 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">14.193</t>
@@ -215,19 +383,19 @@
     <t xml:space="preserve">2023-04-27</t>
   </si>
   <si>
-    <t xml:space="preserve">24-26 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gezici</t>
+    <t xml:space="preserve">24-27 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-26 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-26</t>
   </si>
   <si>
     <t xml:space="preserve">3.991</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-26 Nisan</t>
+    <t xml:space="preserve">23-26 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">TEAM</t>
@@ -236,7 +404,7 @@
     <t xml:space="preserve">3.054</t>
   </si>
   <si>
-    <t xml:space="preserve">17-25 Nisan</t>
+    <t xml:space="preserve">17-25 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">TÜSİAR</t>
@@ -248,40 +416,22 @@
     <t xml:space="preserve">2023-04-25</t>
   </si>
   <si>
-    <t xml:space="preserve">17-24 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artıbir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.500</t>
+    <t xml:space="preserve">17-24 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-24</t>
   </si>
   <si>
-    <t xml:space="preserve">15-24 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-22 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.920</t>
+    <t xml:space="preserve">15-24 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-22 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-22</t>
   </si>
   <si>
-    <t xml:space="preserve">12-20 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
+    <t xml:space="preserve">12-20 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">10.277</t>
@@ -290,16 +440,13 @@
     <t xml:space="preserve">2023-04-20</t>
   </si>
   <si>
-    <t xml:space="preserve">15-20 Nisan</t>
+    <t xml:space="preserve">15-20 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">17.400</t>
   </si>
   <si>
-    <t xml:space="preserve">15-18 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piar</t>
+    <t xml:space="preserve">15-18 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">5.400</t>
@@ -308,28 +455,31 @@
     <t xml:space="preserve">2023-04-18</t>
   </si>
   <si>
-    <t xml:space="preserve">14-16 Nisan</t>
+    <t xml:space="preserve">15-16 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-16 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.422</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-16 Nisan</t>
+    <t xml:space="preserve">10-16 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">4.541</t>
   </si>
   <si>
-    <t xml:space="preserve">5-15 Nisan</t>
+    <t xml:space="preserve">5-15 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-15</t>
   </si>
   <si>
-    <t xml:space="preserve">12-14 Nisan</t>
+    <t xml:space="preserve">12-14 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">10.136</t>
@@ -338,10 +488,7 @@
     <t xml:space="preserve">2023-04-14</t>
   </si>
   <si>
-    <t xml:space="preserve">8-12 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALF</t>
+    <t xml:space="preserve">8-12 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.340</t>
@@ -350,13 +497,13 @@
     <t xml:space="preserve">2023-04-12</t>
   </si>
   <si>
-    <t xml:space="preserve">7-11 Nisan</t>
+    <t xml:space="preserve">7-11 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2023-04-11</t>
   </si>
   <si>
-    <t xml:space="preserve">6-10 Nisan</t>
+    <t xml:space="preserve">6-10 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.410</t>
@@ -365,7 +512,7 @@
     <t xml:space="preserve">2023-04-10</t>
   </si>
   <si>
-    <t xml:space="preserve">1-7 Nisan</t>
+    <t xml:space="preserve">1-7 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">4.745</t>
@@ -374,10 +521,19 @@
     <t xml:space="preserve">2023-04-07</t>
   </si>
   <si>
-    <t xml:space="preserve">1-3 Nisan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetroPOLL</t>
+    <t xml:space="preserve">3-6 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.610</t>
@@ -386,22 +542,22 @@
     <t xml:space="preserve">2023-04-03</t>
   </si>
   <si>
-    <t xml:space="preserve">1-2 Nisan</t>
+    <t xml:space="preserve">1-2 Nis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-02</t>
   </si>
   <si>
     <t xml:space="preserve">2.864</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Mart-2 Nisan</t>
+    <t xml:space="preserve">25 Mart-2 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">2.147</t>
   </si>
   <si>
-    <t xml:space="preserve">28 Mart-1 Nisan</t>
+    <t xml:space="preserve">28 Mart-1 Nis</t>
   </si>
   <si>
     <t xml:space="preserve">18.478</t>
@@ -410,22 +566,13 @@
     <t xml:space="preserve">2023-04-01</t>
   </si>
   <si>
-    <t xml:space="preserve">–</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.067</t>
   </si>
   <si>
-    <t xml:space="preserve">İEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.729</t>
   </si>
   <si>
-    <t xml:space="preserve">27-30 Mart</t>
+    <t xml:space="preserve">27-30 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">2.731</t>
@@ -437,7 +584,7 @@
     <t xml:space="preserve">Mart</t>
   </si>
   <si>
-    <t xml:space="preserve">27-29 Mart</t>
+    <t xml:space="preserve">27-29 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">2.655</t>
@@ -446,13 +593,16 @@
     <t xml:space="preserve">2023-03-29</t>
   </si>
   <si>
-    <t xml:space="preserve">13-21 Mart</t>
+    <t xml:space="preserve">17-21 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-21</t>
   </si>
   <si>
-    <t xml:space="preserve">13-18 Mart</t>
+    <t xml:space="preserve">13-21 Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-18 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">1.916</t>
@@ -461,7 +611,7 @@
     <t xml:space="preserve">2023-03-18</t>
   </si>
   <si>
-    <t xml:space="preserve">12-17 Mart</t>
+    <t xml:space="preserve">12-17 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">2.560</t>
@@ -470,7 +620,7 @@
     <t xml:space="preserve">2023-03-17</t>
   </si>
   <si>
-    <t xml:space="preserve">11-15 Mart</t>
+    <t xml:space="preserve">11-15 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">4.540</t>
@@ -479,7 +629,7 @@
     <t xml:space="preserve">2023-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">8-15 Mart</t>
+    <t xml:space="preserve">8-15 Mar</t>
   </si>
   <si>
     <t xml:space="preserve">2023-03-01</t>
@@ -866,19 +1016,17 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.5</v>
-      </c>
+        <v>45.6</v>
+      </c>
+      <c r="E2"/>
       <c r="F2" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -898,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>45.4</v>
+        <v>51.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>50.9</v>
+        <v>44.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -921,31 +1069,29 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.7</v>
-      </c>
+        <v>50.6</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" t="n">
-        <v>41.9</v>
+        <v>46.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.9</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -953,31 +1099,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="n">
-        <v>49.2</v>
+        <v>45.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>43.3</v>
+        <v>47.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -985,31 +1131,29 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -1017,31 +1161,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5</v>
+        <v>44.2</v>
       </c>
       <c r="E7" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>51.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1049,31 +1193,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>48.8</v>
+        <v>50.4</v>
       </c>
       <c r="E8" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="F8" t="n">
-        <v>44.1</v>
+        <v>44.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1084,28 +1228,28 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>49.1</v>
+        <v>44.2</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="F9" t="n">
-        <v>46.3</v>
+        <v>51.3</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -1113,31 +1257,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>48</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1145,1388 +1289,2314 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>42.5</v>
+        <v>46.9</v>
       </c>
       <c r="E11" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="F11" t="n">
-        <v>48.6</v>
+        <v>49.1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2</v>
+        <v>50.6</v>
       </c>
       <c r="E12" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="F12" t="n">
-        <v>49.1</v>
+        <v>46.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>48.8</v>
+        <v>44.1</v>
       </c>
       <c r="E13" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="F13" t="n">
-        <v>45.8</v>
+        <v>52.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>48.6</v>
+        <v>44.6</v>
       </c>
       <c r="E14" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>44.1</v>
+        <v>50.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9</v>
+        <v>50.6</v>
       </c>
       <c r="E15" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="F15" t="n">
-        <v>47.3</v>
+        <v>44.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>44.1</v>
+        <v>46.1</v>
       </c>
       <c r="E16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1</v>
+        <v>43.9</v>
       </c>
       <c r="E17" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>46.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="H17" t="n">
-        <v>9.1</v>
+        <v>2.6</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D18" t="n">
-        <v>44.6</v>
+        <v>45.3</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="F18" t="n">
-        <v>48.7</v>
+        <v>51.3</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="E19" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="F19" t="n">
-        <v>47.4</v>
+        <v>51.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D20" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="E20" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="F20" t="n">
-        <v>46.6</v>
+        <v>46.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D21" t="n">
-        <v>43.7</v>
+        <v>43.2</v>
       </c>
       <c r="E21" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F21" t="n">
-        <v>49.4</v>
+        <v>50.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D22" t="n">
-        <v>41.5</v>
+        <v>45.9</v>
       </c>
       <c r="E22" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5</v>
+        <v>46.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>42.4</v>
+        <v>43.7</v>
       </c>
       <c r="E23" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="F23" t="n">
         <v>49.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>46.7</v>
+        <v>44.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="F24" t="n">
-        <v>46.8</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D25" t="n">
-        <v>51.4</v>
+        <v>43.6</v>
       </c>
       <c r="E25" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="n">
-        <v>41.8</v>
+        <v>50.9</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D26" t="n">
-        <v>47.1</v>
+        <v>45.4</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F26" t="n">
-        <v>49.4</v>
+        <v>50.9</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>50.8</v>
       </c>
       <c r="E27" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="F27" t="n">
-        <v>48.6</v>
+        <v>41.9</v>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D28" t="n">
-        <v>46.1</v>
+        <v>47.8</v>
       </c>
       <c r="E28" t="n">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="F28" t="n">
-        <v>44.1</v>
+        <v>45.9</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D29" t="n">
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="F29" t="n">
-        <v>49.8</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D30" t="n">
-        <v>46.4</v>
+        <v>48.8</v>
       </c>
       <c r="E30" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="F30" t="n">
-        <v>45.7</v>
+        <v>44.1</v>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D31" t="n">
-        <v>50.8</v>
+        <v>49.1</v>
       </c>
       <c r="E31" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="F31" t="n">
-        <v>43.1</v>
+        <v>46.3</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
-        <v>7.7</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>43.9</v>
+        <v>44.6</v>
       </c>
       <c r="E32" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="F32" t="n">
-        <v>47.4</v>
+        <v>48</v>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D33" t="n">
-        <v>41.5</v>
+        <v>44.6</v>
       </c>
       <c r="E33" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="F33" t="n">
-        <v>48.9</v>
+        <v>45.5</v>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H33" t="n">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D34" t="n">
-        <v>42.3</v>
+        <v>42.5</v>
       </c>
       <c r="E34" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="F34" t="n">
-        <v>50.9</v>
+        <v>48.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D35" t="n">
-        <v>45.9</v>
+        <v>47.2</v>
       </c>
       <c r="E35" t="n">
-        <v>8.3</v>
+        <v>2.3</v>
       </c>
       <c r="F35" t="n">
-        <v>43.9</v>
+        <v>49.1</v>
       </c>
       <c r="G35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.9</v>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D36" t="n">
-        <v>45.2</v>
+        <v>48.8</v>
       </c>
       <c r="E36" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="F36" t="n">
-        <v>46.9</v>
+        <v>45.8</v>
       </c>
       <c r="G36" t="n">
         <v>2.4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D37" t="n">
-        <v>43.2</v>
+        <v>48.6</v>
       </c>
       <c r="E37" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="F37" t="n">
-        <v>53.4</v>
+        <v>44.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>10.2</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D38" t="n">
-        <v>46.8</v>
+        <v>41.9</v>
       </c>
       <c r="E38" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="F38" t="n">
-        <v>42.2</v>
+        <v>47.3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D39" t="n">
-        <v>50.6</v>
+        <v>44.1</v>
       </c>
       <c r="E39" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>41.8</v>
+        <v>51.7</v>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
-        <v>8.8</v>
+        <v>7.6</v>
       </c>
       <c r="I39" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D40" t="n">
-        <v>43.1</v>
+        <v>51.1</v>
       </c>
       <c r="E40" t="n">
-        <v>12.1</v>
+        <v>4.1</v>
       </c>
       <c r="F40" t="n">
-        <v>42.7</v>
+        <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4</v>
+        <v>9.1</v>
       </c>
       <c r="I40" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="n">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" t="n">
-        <v>38.4</v>
-      </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="F41" t="n">
-        <v>47.9</v>
+        <v>47.5</v>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="I41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="D42" t="n">
-        <v>41.8</v>
+        <v>42.5</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>7.3</v>
       </c>
       <c r="F42" t="n">
-        <v>44.3</v>
+        <v>44.7</v>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D43" t="n">
-        <v>46.8</v>
+        <v>44.6</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="F43" t="n">
-        <v>45.7</v>
+        <v>48.7</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D44" t="n">
-        <v>49.9</v>
+        <v>44.4</v>
       </c>
       <c r="E44" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="F44" t="n">
-        <v>41.5</v>
+        <v>47.4</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H44"/>
+        <v>2.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J44" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D45" t="n">
-        <v>41.6</v>
+        <v>48.7</v>
       </c>
       <c r="E45" t="n">
-        <v>9.1</v>
+        <v>3.6</v>
       </c>
       <c r="F45" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H45"/>
+        <v>1.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.1</v>
+      </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="E46" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F46" t="n">
-        <v>51.3</v>
+        <v>49.4</v>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H46"/>
+        <v>2.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.7</v>
+      </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J46" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D47" t="n">
-        <v>47.4</v>
+        <v>41.5</v>
       </c>
       <c r="E47" t="n">
         <v>6.5</v>
       </c>
       <c r="F47" t="n">
-        <v>45.3</v>
+        <v>49.5</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H47"/>
+        <v>2.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
       <c r="I47" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>39.7</v>
+        <v>42.4</v>
       </c>
       <c r="E48" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="F48" t="n">
-        <v>53.5</v>
+        <v>49.3</v>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D49" t="n">
-        <v>42.3</v>
+        <v>46.7</v>
       </c>
       <c r="E49" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="F49" t="n">
-        <v>53.1</v>
+        <v>46.8</v>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H49"/>
+        <v>2.6</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I49" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="D50" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E50"/>
+        <v>51.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F50" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="G50"/>
+        <v>41.8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.2</v>
+      </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="I50" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D51" t="n">
-        <v>42.8</v>
+        <v>47.1</v>
       </c>
       <c r="E51" t="n">
-        <v>16.2</v>
+        <v>1.2</v>
       </c>
       <c r="F51" t="n">
-        <v>39.9</v>
+        <v>49.4</v>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H51"/>
+        <v>2.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.3</v>
+      </c>
       <c r="I51" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="D52" t="n">
-        <v>44.3</v>
+        <v>45</v>
       </c>
       <c r="E52" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="F52" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="G52"/>
+        <v>44.8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.2</v>
+      </c>
       <c r="H52" t="n">
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J52" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D53" t="n">
-        <v>32.1</v>
+        <v>43</v>
       </c>
       <c r="E53" t="n">
-        <v>7.9</v>
+        <v>5.6</v>
       </c>
       <c r="F53" t="n">
-        <v>36.8</v>
+        <v>48.6</v>
       </c>
       <c r="G53" t="n">
-        <v>12.2</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>11.1</v>
+        <v>5.6</v>
       </c>
       <c r="I53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>162</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>177</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>177</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="I68" t="s">
+        <v>183</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I69" t="s">
+        <v>183</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I70" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" t="n">
         <v>45.7</v>
       </c>
-      <c r="E54"/>
-      <c r="F54" t="n">
+      <c r="G71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>183</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72" t="s">
+        <v>188</v>
+      </c>
+      <c r="J72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73" t="s">
+        <v>192</v>
+      </c>
+      <c r="J73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74" t="s">
+        <v>194</v>
+      </c>
+      <c r="J74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="n">
+        <v>44</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75" t="s">
+        <v>194</v>
+      </c>
+      <c r="J75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>201</v>
+      </c>
+      <c r="J77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>204</v>
+      </c>
+      <c r="J79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>206</v>
+      </c>
+      <c r="J80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="n">
         <v>51.1</v>
       </c>
-      <c r="G54"/>
-      <c r="H54" t="n">
+      <c r="G83"/>
+      <c r="H83" t="n">
         <v>3.3</v>
       </c>
-      <c r="I54" t="s">
-        <v>156</v>
-      </c>
-      <c r="J54" t="s">
-        <v>140</v>
+      <c r="I83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/cb_son.xlsx
+++ b/cb_son.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -44,6 +44,21 @@
     <t xml:space="preserve">Ay</t>
   </si>
   <si>
+    <t xml:space="preserve">12-13 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Özdemir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayıs</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 May</t>
   </si>
   <si>
@@ -56,10 +71,13 @@
     <t xml:space="preserve">2023-05-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayıs</t>
-  </si>
-  <si>
     <t xml:space="preserve">11-12 May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETİMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.751</t>
   </si>
   <si>
     <t xml:space="preserve">Areda Survey[a 1]</t>
@@ -1016,18 +1034,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>45.6</v>
+        <v>48.4</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>50.5</v>
+        <v>45.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.9</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -1046,22 +1062,20 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.6</v>
-      </c>
+        <v>45.6</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>44.2</v>
+        <v>50.5</v>
       </c>
       <c r="G3" t="n">
         <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1069,29 +1083,29 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -1099,7 +1113,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1108,22 +1122,22 @@
         <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>45.6</v>
+        <v>51.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>47.9</v>
+        <v>44.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1140,20 +1154,20 @@
         <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4</v>
+        <v>50.6</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>44.3</v>
+        <v>46.3</v>
       </c>
       <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.3</v>
       </c>
-      <c r="H6" t="n">
-        <v>7.1</v>
-      </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -1161,7 +1175,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1170,22 +1184,22 @@
         <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2</v>
+        <v>45.6</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7</v>
+        <v>47.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1202,22 +1216,20 @@
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.5</v>
-      </c>
+        <v>51.4</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="n">
-        <v>44.7</v>
+        <v>44.3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1225,7 +1237,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1237,19 +1249,19 @@
         <v>44.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F9" t="n">
-        <v>51.3</v>
+        <v>51.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -1263,25 +1275,25 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>44.4</v>
+        <v>50.4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="n">
-        <v>49.5</v>
+        <v>44.7</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1289,31 +1301,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9</v>
+        <v>44.2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F11" t="n">
-        <v>49.1</v>
+        <v>51.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1321,31 +1333,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" t="n">
-        <v>50.6</v>
+        <v>44.4</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F12" t="n">
-        <v>46.1</v>
+        <v>49.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -1353,7 +1365,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1362,22 +1374,22 @@
         <v>46</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1</v>
+        <v>46.9</v>
       </c>
       <c r="E13" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="F13" t="n">
-        <v>52.1</v>
+        <v>49.1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -1391,25 +1403,25 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>44.6</v>
+        <v>50.6</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="F14" t="n">
-        <v>50.1</v>
+        <v>46.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1426,22 +1438,22 @@
         <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>50.6</v>
+        <v>44.1</v>
       </c>
       <c r="E15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.7</v>
       </c>
-      <c r="F15" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.9</v>
-      </c>
       <c r="H15" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1455,25 +1467,25 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I16" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1484,28 +1496,28 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9</v>
+        <v>50.6</v>
       </c>
       <c r="E17" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="F17" t="n">
-        <v>46.5</v>
+        <v>44.8</v>
       </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1513,31 +1525,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" t="n">
-        <v>45.3</v>
+        <v>46.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F18" t="n">
-        <v>51.3</v>
+        <v>49.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1545,31 +1557,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" t="n">
-        <v>44.7</v>
+        <v>43.9</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="F19" t="n">
-        <v>51.2</v>
+        <v>46.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1577,7 +1589,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -1586,22 +1598,22 @@
         <v>65</v>
       </c>
       <c r="D20" t="n">
-        <v>48.6</v>
+        <v>45.3</v>
       </c>
       <c r="E20" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="n">
-        <v>46.9</v>
+        <v>51.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -1609,31 +1621,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
       <c r="D21" t="n">
-        <v>43.2</v>
+        <v>44.7</v>
       </c>
       <c r="E21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.5</v>
       </c>
-      <c r="F21" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H21" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -1641,31 +1653,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" t="n">
-        <v>45.9</v>
+        <v>48.6</v>
       </c>
       <c r="E22" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="F22" t="n">
         <v>46.9</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1673,7 +1685,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -1682,22 +1694,22 @@
         <v>75</v>
       </c>
       <c r="D23" t="n">
-        <v>43.7</v>
+        <v>43.2</v>
       </c>
       <c r="E23" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="n">
-        <v>49.3</v>
+        <v>50.5</v>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1714,22 +1726,22 @@
         <v>78</v>
       </c>
       <c r="D24" t="n">
-        <v>44.5</v>
+        <v>45.9</v>
       </c>
       <c r="E24" t="n">
         <v>3.2</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>46.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1737,31 +1749,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I25" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>81</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1778,22 +1790,22 @@
         <v>84</v>
       </c>
       <c r="D26" t="n">
-        <v>45.4</v>
+        <v>44.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="F26" t="n">
-        <v>50.9</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>5.5</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1801,31 +1813,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>86</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I27" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>88</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -1833,28 +1845,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>90</v>
       </c>
       <c r="D28" t="n">
-        <v>47.8</v>
+        <v>45.4</v>
       </c>
       <c r="E28" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="F28" t="n">
-        <v>45.9</v>
+        <v>50.9</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="s">
         <v>91</v>
@@ -1868,28 +1880,28 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I29" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>47</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I29" t="s">
-        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -1900,28 +1912,28 @@
         <v>95</v>
       </c>
       <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I30" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>44.1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -1929,31 +1941,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="E31" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="F31" t="n">
-        <v>46.3</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -1961,31 +1973,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" t="n">
-        <v>44.6</v>
+        <v>48.8</v>
       </c>
       <c r="E32" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="F32" t="n">
-        <v>48</v>
+        <v>44.1</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -1993,34 +2005,34 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D33" t="n">
-        <v>44.6</v>
+        <v>49.1</v>
       </c>
       <c r="E33" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="F33" t="n">
-        <v>45.5</v>
+        <v>46.3</v>
       </c>
       <c r="G33" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2028,191 +2040,191 @@
         <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
       </c>
       <c r="D34" t="n">
-        <v>42.5</v>
+        <v>44.6</v>
       </c>
       <c r="E34" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F34" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="G34" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D35" t="n">
-        <v>47.2</v>
+        <v>44.6</v>
       </c>
       <c r="E35" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="F35" t="n">
-        <v>49.1</v>
+        <v>45.5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I36" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F36" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>111</v>
-      </c>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
       <c r="E37" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="F37" t="n">
-        <v>44.1</v>
+        <v>49.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" t="n">
-        <v>41.9</v>
+        <v>48.8</v>
       </c>
       <c r="E38" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="F38" t="n">
-        <v>47.3</v>
+        <v>45.8</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>119</v>
       </c>
       <c r="D39" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F39" t="n">
         <v>44.1</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>3</v>
       </c>
-      <c r="F39" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H39" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -2220,31 +2232,31 @@
         <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>121</v>
       </c>
       <c r="D40" t="n">
-        <v>51.1</v>
+        <v>41.9</v>
       </c>
       <c r="E40" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>47.3</v>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>9.1</v>
+        <v>5.4</v>
       </c>
       <c r="I40" t="s">
         <v>122</v>
       </c>
       <c r="J40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -2252,127 +2264,127 @@
         <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>46</v>
+        <v>44.1</v>
       </c>
       <c r="E41" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>47.5</v>
+        <v>51.7</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="I41" t="s">
         <v>122</v>
       </c>
       <c r="J41" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="D42" t="n">
-        <v>42.5</v>
+        <v>51.1</v>
       </c>
       <c r="E42" t="n">
-        <v>7.3</v>
+        <v>4.1</v>
       </c>
       <c r="F42" t="n">
-        <v>44.7</v>
+        <v>42</v>
       </c>
       <c r="G42" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="D43" t="n">
-        <v>44.6</v>
+        <v>46</v>
       </c>
       <c r="E43" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="F43" t="n">
-        <v>48.7</v>
+        <v>47.5</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="D44" t="n">
-        <v>44.4</v>
+        <v>42.5</v>
       </c>
       <c r="E44" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="F44" t="n">
-        <v>47.4</v>
+        <v>44.7</v>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J44" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45">
@@ -2380,63 +2392,63 @@
         <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>132</v>
       </c>
       <c r="D45" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F45" t="n">
         <v>48.7</v>
       </c>
-      <c r="E45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F45" t="n">
-        <v>46.6</v>
-      </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>43.7</v>
+        <v>44.4</v>
       </c>
       <c r="E46" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="F46" t="n">
-        <v>49.4</v>
+        <v>47.4</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -2444,383 +2456,383 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D47" t="n">
-        <v>41.5</v>
+        <v>48.7</v>
       </c>
       <c r="E47" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F47" t="n">
-        <v>49.5</v>
+        <v>46.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="I47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D48" t="n">
-        <v>42.4</v>
+        <v>43.7</v>
       </c>
       <c r="E48" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J48" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D49" t="n">
-        <v>46.7</v>
+        <v>41.5</v>
       </c>
       <c r="E49" t="n">
-        <v>3.9</v>
+        <v>6.5</v>
       </c>
       <c r="F49" t="n">
-        <v>46.8</v>
+        <v>49.5</v>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="I49" t="s">
         <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>51.4</v>
+        <v>42.4</v>
       </c>
       <c r="E50" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="F50" t="n">
-        <v>41.8</v>
+        <v>49.3</v>
       </c>
       <c r="G50" t="n">
         <v>2.2</v>
       </c>
       <c r="H50" t="n">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" t="n">
-        <v>47.1</v>
+        <v>46.7</v>
       </c>
       <c r="E51" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="F51" t="n">
-        <v>49.4</v>
+        <v>46.8</v>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="I51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D52" t="n">
-        <v>45</v>
+        <v>51.4</v>
       </c>
       <c r="E52" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="F52" t="n">
-        <v>44.8</v>
+        <v>41.8</v>
       </c>
       <c r="G52" t="n">
         <v>2.2</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>9.6</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J52" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" t="n">
-        <v>43</v>
+        <v>47.1</v>
       </c>
       <c r="E53" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="F53" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="D54" t="n">
-        <v>46.1</v>
+        <v>45</v>
       </c>
       <c r="E54" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="F54" t="n">
-        <v>44.1</v>
+        <v>44.8</v>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I54" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J54" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="D55" t="n">
-        <v>45.5</v>
+        <v>43</v>
       </c>
       <c r="E55" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="F55" t="n">
-        <v>49.8</v>
+        <v>48.6</v>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="I55" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="E56" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="F56" t="n">
-        <v>45.7</v>
+        <v>44.1</v>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="I56" t="s">
         <v>154</v>
       </c>
       <c r="J56" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D57" t="n">
-        <v>50.8</v>
+        <v>45.5</v>
       </c>
       <c r="E57" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F57" t="n">
-        <v>43.1</v>
+        <v>49.8</v>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
-        <v>7.7</v>
+        <v>4.3</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>43.9</v>
+        <v>46.4</v>
       </c>
       <c r="E58" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="F58" t="n">
-        <v>47.4</v>
+        <v>45.7</v>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="I58" t="s">
         <v>160</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
@@ -2828,95 +2840,95 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D59" t="n">
-        <v>41.5</v>
+        <v>50.8</v>
       </c>
       <c r="E59" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="F59" t="n">
-        <v>48.9</v>
+        <v>43.1</v>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="I59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J59" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D60" t="n">
-        <v>42.3</v>
+        <v>43.9</v>
       </c>
       <c r="E60" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="F60" t="n">
-        <v>50.9</v>
+        <v>47.4</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D61" t="n">
-        <v>45.9</v>
+        <v>41.5</v>
       </c>
       <c r="E61" t="n">
-        <v>8.3</v>
+        <v>7.2</v>
       </c>
       <c r="F61" t="n">
-        <v>43.9</v>
+        <v>48.9</v>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="I61" t="s">
         <v>168</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
@@ -2924,501 +2936,503 @@
         <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D62" t="n">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="F62" t="n">
-        <v>44.3</v>
+        <v>50.9</v>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J62" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="D63" t="n">
-        <v>42.3</v>
+        <v>45.9</v>
       </c>
       <c r="E63" t="n">
-        <v>12.7</v>
+        <v>8.3</v>
       </c>
       <c r="F63" t="n">
-        <v>42.6</v>
+        <v>43.9</v>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J63" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
-        <v>45.2</v>
+        <v>41.8</v>
       </c>
       <c r="E64" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
-        <v>46.9</v>
+        <v>44.3</v>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D65" t="n">
-        <v>43.4</v>
+        <v>42.3</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>44.6</v>
+        <v>42.6</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="I65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D66" t="n">
-        <v>43.2</v>
+        <v>45.2</v>
       </c>
       <c r="E66" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="F66" t="n">
-        <v>53.4</v>
+        <v>46.9</v>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
-        <v>10.2</v>
+        <v>1.7</v>
       </c>
       <c r="I66" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="D67" t="n">
-        <v>46.8</v>
+        <v>43.4</v>
       </c>
       <c r="E67" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>42.2</v>
+        <v>44.6</v>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="I67" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J67" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D68" t="n">
-        <v>50.6</v>
+        <v>43.2</v>
       </c>
       <c r="E68" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="F68" t="n">
-        <v>41.8</v>
+        <v>53.4</v>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
-        <v>8.8</v>
+        <v>10.2</v>
       </c>
       <c r="I68" t="s">
         <v>183</v>
       </c>
       <c r="J68" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D69" t="n">
-        <v>43.1</v>
+        <v>46.8</v>
       </c>
       <c r="E69" t="n">
-        <v>12.1</v>
+        <v>8.4</v>
       </c>
       <c r="F69" t="n">
-        <v>42.7</v>
+        <v>42.2</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="I69" t="s">
         <v>183</v>
       </c>
       <c r="J69" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D70" t="n">
-        <v>38.4</v>
+        <v>50.6</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="F70" t="n">
-        <v>47.9</v>
+        <v>41.8</v>
       </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
-        <v>9.5</v>
+        <v>8.8</v>
       </c>
       <c r="I70" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="D71" t="n">
-        <v>46.8</v>
+        <v>43.1</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>12.1</v>
       </c>
       <c r="F71" t="n">
-        <v>45.7</v>
+        <v>42.7</v>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="I71" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D72" t="n">
-        <v>49.9</v>
+        <v>38.4</v>
       </c>
       <c r="E72" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>41.5</v>
+        <v>47.9</v>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H72"/>
+        <v>4.8</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9.5</v>
+      </c>
       <c r="I72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J72" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>191</v>
       </c>
       <c r="D73" t="n">
-        <v>41.6</v>
+        <v>46.8</v>
       </c>
       <c r="E73" t="n">
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>46.4</v>
+        <v>45.7</v>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H73"/>
+        <v>1.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.1</v>
+      </c>
       <c r="I73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J73" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
         <v>193</v>
       </c>
-      <c r="B74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" t="s">
-        <v>59</v>
-      </c>
       <c r="D74" t="n">
-        <v>43.2</v>
+        <v>49.9</v>
       </c>
       <c r="E74" t="n">
-        <v>13.1</v>
+        <v>5.3</v>
       </c>
       <c r="F74" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H74"/>
       <c r="I74" t="s">
         <v>194</v>
       </c>
       <c r="J74" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D75" t="n">
-        <v>44</v>
+        <v>41.6</v>
       </c>
       <c r="E75" t="n">
-        <v>3.5</v>
+        <v>9.1</v>
       </c>
       <c r="F75" t="n">
-        <v>51.3</v>
+        <v>46.4</v>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J75" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>47.4</v>
+        <v>43.2</v>
       </c>
       <c r="E76" t="n">
-        <v>6.5</v>
+        <v>13.1</v>
       </c>
       <c r="F76" t="n">
-        <v>45.3</v>
+        <v>41.7</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J76" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="n">
+        <v>44</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" t="s">
         <v>200</v>
       </c>
-      <c r="D77" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>201</v>
-      </c>
       <c r="J77" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -3426,29 +3440,29 @@
         <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
         <v>203</v>
       </c>
       <c r="D78" t="n">
-        <v>42.3</v>
+        <v>47.4</v>
       </c>
       <c r="E78" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="F78" t="n">
-        <v>53.1</v>
+        <v>45.3</v>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H78"/>
       <c r="I78" t="s">
         <v>204</v>
       </c>
       <c r="J78" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -3456,147 +3470,209 @@
         <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="D79" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="E79"/>
+        <v>39.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F79" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="G79"/>
+        <v>53.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.4</v>
+      </c>
       <c r="H79" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I79" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J79" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="D80" t="n">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="E80" t="n">
-        <v>16.2</v>
+        <v>3.1</v>
       </c>
       <c r="F80" t="n">
-        <v>39.9</v>
+        <v>53.1</v>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J80" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="D81" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.1</v>
-      </c>
+        <v>45.9</v>
+      </c>
+      <c r="E81"/>
       <c r="F81" t="n">
-        <v>45.5</v>
+        <v>50.4</v>
       </c>
       <c r="G81"/>
       <c r="H81" t="n">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J81" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="D82" t="n">
-        <v>32.1</v>
+        <v>42.8</v>
       </c>
       <c r="E82" t="n">
-        <v>7.9</v>
+        <v>16.2</v>
       </c>
       <c r="F82" t="n">
-        <v>36.8</v>
+        <v>39.9</v>
       </c>
       <c r="G82" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H82" t="n">
-        <v>11.1</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="H82"/>
       <c r="I82" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J82" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="D83" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="E83"/>
+        <v>44.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F83" t="n">
-        <v>51.1</v>
+        <v>45.5</v>
       </c>
       <c r="G83"/>
       <c r="H83" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>212</v>
+      </c>
+      <c r="J83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D84" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>212</v>
+      </c>
+      <c r="J84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="n">
         <v>3.3</v>
       </c>
-      <c r="I83" t="s">
-        <v>206</v>
-      </c>
-      <c r="J83" t="s">
-        <v>189</v>
+      <c r="I85" t="s">
+        <v>212</v>
+      </c>
+      <c r="J85" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
